--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\EfficientNet-ECA-Hswish\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795AC3A9-60AC-4775-BC19-870BB470843C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BC4872-2AE8-4219-BF23-9D22B570AABF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="180" windowWidth="17300" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7720" yWindow="280" windowWidth="17300" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="216">
   <si>
     <t>Attention@dataset</t>
   </si>
@@ -712,6 +712,20 @@
   </si>
   <si>
     <t>4.464M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.207FPS</t>
+  </si>
+  <si>
+    <t>43.003M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.765FPS</t>
+  </si>
+  <si>
+    <t>12.949M</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -852,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -919,74 +933,68 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24568CE1-76FF-4D43-867D-CD750436AB4E}">
   <dimension ref="A3:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1291,25 +1299,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:23" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="P3" s="24" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="P3" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="S3" s="24" t="s">
+      <c r="Q3" s="44"/>
+      <c r="S3" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
     </row>
     <row r="4" spans="1:23" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
@@ -1374,42 +1382,42 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <f>C16</f>
         <v>0.01</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <f>D16</f>
         <v>0.02</v>
       </c>
-      <c r="E5" s="39" t="str">
+      <c r="E5" s="38" t="str">
         <f>E16</f>
         <v>4.180M</v>
       </c>
-      <c r="F5" s="39" t="str">
+      <c r="F5" s="38" t="str">
         <f>F16</f>
         <v>0.397G</v>
       </c>
-      <c r="G5" s="39" t="str">
+      <c r="G5" s="38" t="str">
         <f>G16</f>
         <v>21.473FPS</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <v>0.94706000000000001</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <v>0.98970999999999998</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="28" t="s">
         <v>177</v>
       </c>
       <c r="P5" s="3" t="s">
@@ -1438,33 +1446,33 @@
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="40" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>188</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <v>0.95882000000000001</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <v>0.98970999999999998</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="28" t="s">
         <v>178</v>
       </c>
       <c r="P6" s="3" t="s">
@@ -1493,42 +1501,42 @@
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <f>C19</f>
         <v>0.03</v>
       </c>
-      <c r="D7" s="25">
-        <f t="shared" ref="D7:G7" si="0">D19</f>
+      <c r="D7" s="24">
+        <f t="shared" ref="D7:F7" si="0">D19</f>
         <v>0.04</v>
       </c>
-      <c r="E7" s="39" t="str">
+      <c r="E7" s="38" t="str">
         <f>E19</f>
         <v>4.285M</v>
       </c>
-      <c r="F7" s="39" t="str">
+      <c r="F7" s="38" t="str">
         <f t="shared" si="0"/>
         <v>0.397G</v>
       </c>
-      <c r="G7" s="39" t="str">
+      <c r="G7" s="38" t="str">
         <f>G19</f>
         <v>21.367FPS</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <v>0.96618000000000004</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="24">
         <v>0.99216000000000004</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="36" t="s">
         <v>179</v>
       </c>
       <c r="P7" s="3" t="s">
@@ -1557,33 +1565,33 @@
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="40" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>195</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>0.97352899999999998</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <v>0.99656999999999996</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="29" t="s">
         <v>180</v>
       </c>
       <c r="P8" s="3" t="s">
@@ -1612,42 +1620,42 @@
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <f>C22</f>
         <v>0.05</v>
       </c>
-      <c r="D9" s="25">
-        <f t="shared" ref="D9:G10" si="1">D22</f>
+      <c r="D9" s="24">
+        <f t="shared" ref="D9:G9" si="1">D22</f>
         <v>0.06</v>
       </c>
-      <c r="E9" s="39" t="str">
+      <c r="E9" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> 4.217M</v>
       </c>
-      <c r="F9" s="39" t="str">
+      <c r="F9" s="38" t="str">
         <f t="shared" si="1"/>
         <v>0.397G</v>
       </c>
-      <c r="G9" s="39" t="str">
+      <c r="G9" s="38" t="str">
         <f t="shared" si="1"/>
         <v>21.473FPS</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="24">
         <v>0.93725000000000003</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="24">
         <v>0.98724999999999996</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="36" t="s">
         <v>181</v>
       </c>
       <c r="P9" s="3" t="s">
@@ -1661,33 +1669,33 @@
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="41" t="s">
         <v>201</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="33">
         <v>0.95686000000000004</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="33">
         <v>0.99019999999999997</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="30" t="s">
+      <c r="N10" s="29" t="s">
         <v>182</v>
       </c>
       <c r="P10" s="3" t="s">
@@ -1701,19 +1709,19 @@
       <c r="I11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="31">
         <v>0.97989999999999999</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="31">
         <v>0.99607999999999997</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="34" t="s">
         <v>183</v>
       </c>
       <c r="P11" s="3" t="s">
@@ -1761,29 +1769,29 @@
       <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="1:23" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="29" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>185</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1810,37 +1818,37 @@
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>0.01</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <v>0.02</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>193</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="42">
         <v>0.91559999999999997</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="24">
         <v>0.99460000000000004</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="N16" s="29" t="s">
+      <c r="N16" s="28" t="s">
         <v>203</v>
       </c>
     </row>
@@ -1849,60 +1857,68 @@
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="37" t="s">
         <v>189</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="44">
-        <v>0.916273</v>
-      </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="J17" s="42">
+        <v>0.92235</v>
+      </c>
+      <c r="K17" s="24">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="29" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="28" t="s">
         <v>190</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="42">
         <v>0.92505000000000004</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="24">
         <v>0.99595</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="M18" s="29" t="s">
+      <c r="M18" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="29" t="s">
+      <c r="N18" s="36" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1911,64 +1927,72 @@
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>0.03</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="24">
         <v>0.04</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>192</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="45">
-        <v>0.93045199999999995</v>
-      </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
+      <c r="J19" s="25">
+        <v>0.92842999999999998</v>
+      </c>
+      <c r="K19" s="33">
+        <v>0.99797000000000002</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
       <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="30" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="37" t="s">
         <v>194</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="42">
         <v>0.89398999999999995</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="24">
         <v>0.99055000000000004</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="M20" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="36" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1977,34 +2001,34 @@
       <c r="B21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="29" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="29" t="str">
+      <c r="G21" s="28" t="str">
         <f>G15</f>
         <v>23.691FPS</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="25">
         <v>0.92166999999999999</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="33">
         <v>0.99595</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="M21" s="30" t="s">
+      <c r="M21" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="N21" s="30" t="s">
+      <c r="N21" s="29" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2013,45 +2037,45 @@
       <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>0.05</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <v>0.06</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="29" t="str">
+      <c r="G22" s="28" t="str">
         <f>G16</f>
         <v>21.473FPS</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" spans="1:14" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
       <c r="B23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="31" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="31" t="str">
+      <c r="G23" s="30" t="str">
         <f>G17</f>
         <v>21.542FPS</v>
       </c>
@@ -2060,14 +2084,14 @@
       <c r="A24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
@@ -2114,18 +2138,18 @@
       <c r="C27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="I27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
@@ -2134,18 +2158,18 @@
       <c r="C28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="I28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
     </row>
     <row r="29" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
@@ -2154,18 +2178,18 @@
       <c r="C29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="I29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
     </row>
     <row r="30" spans="1:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
@@ -2174,18 +2198,18 @@
       <c r="C30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="I30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
@@ -2194,18 +2218,18 @@
       <c r="C31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="I31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
     </row>
     <row r="32" spans="1:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
@@ -2214,18 +2238,18 @@
       <c r="C32" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
       <c r="I32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
     </row>
     <row r="33" spans="2:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
@@ -2234,18 +2258,18 @@
       <c r="C33" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
       <c r="I33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
     </row>
     <row r="34" spans="2:14" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
@@ -2254,10 +2278,10 @@
       <c r="C34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
@@ -2266,10 +2290,10 @@
       <c r="C35" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
     </row>
     <row r="36" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
@@ -2278,10 +2302,10 @@
       <c r="C36" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
@@ -2290,10 +2314,10 @@
       <c r="C37" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" spans="2:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
@@ -2302,10 +2326,10 @@
       <c r="C38" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
@@ -2314,10 +2338,10 @@
       <c r="C39" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
@@ -2326,10 +2350,10 @@
       <c r="C40" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
@@ -2338,10 +2362,10 @@
       <c r="C41" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
@@ -2350,10 +2374,10 @@
       <c r="C42" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
     </row>
     <row r="43" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
@@ -2362,10 +2386,10 @@
       <c r="C43" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="2:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="9" t="s">
@@ -2374,10 +2398,10 @@
       <c r="C44" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
     </row>
     <row r="45" spans="2:14" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -2419,25 +2443,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:23" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="P3" s="24" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="P3" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="S3" s="24" t="s">
+      <c r="Q3" s="44"/>
+      <c r="S3" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
     </row>
     <row r="4" spans="2:23" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
@@ -2832,14 +2856,14 @@
       <c r="F14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="2:23" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
@@ -3053,14 +3077,14 @@
     </row>
     <row r="23" spans="2:14" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="2:14" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\EfficientNet-ECA-Hswish\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BC4872-2AE8-4219-BF23-9D22B570AABF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C7CD76-5D8F-480D-8B5F-7825FA195BF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="280" windowWidth="17300" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="300" windowWidth="17800" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="3" r:id="rId1"/>
@@ -1278,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24568CE1-76FF-4D43-867D-CD750436AB4E}">
   <dimension ref="A3:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1783,8 +1783,12 @@
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="24">
+        <v>0.96814</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.99509999999999998</v>
+      </c>
       <c r="E15" s="28" t="s">
         <v>186</v>
       </c>
@@ -1892,8 +1896,12 @@
       <c r="B18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="24">
+        <v>0.91222000000000003</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.99526999999999999</v>
+      </c>
       <c r="E18" s="28" t="s">
         <v>191</v>
       </c>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\EfficientNet-ECA-Hswish\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C7CD76-5D8F-480D-8B5F-7825FA195BF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922341B1-6680-4EEF-8318-50A079CEB174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="300" windowWidth="17800" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7660" yWindow="300" windowWidth="17800" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="3" r:id="rId1"/>
@@ -1279,7 +1279,7 @@
   <dimension ref="A3:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2430,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:W62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\EfficientNet-ECA-Hswish\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922341B1-6680-4EEF-8318-50A079CEB174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5943DA-1FE8-432F-8ADA-F991D297E470}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="300" windowWidth="17800" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4280" yWindow="250" windowWidth="20290" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="226">
   <si>
     <t>Attention@dataset</t>
   </si>
@@ -726,6 +726,46 @@
   </si>
   <si>
     <t>12.949M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>134.797M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.477G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.894M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.071M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.860M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.664M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.408M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.582M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.403G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaves</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -957,9 +997,6 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -995,6 +1032,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24568CE1-76FF-4D43-867D-CD750436AB4E}">
   <dimension ref="A3:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1299,25 +1339,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:23" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="P3" s="44" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="P3" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="S3" s="44" t="s">
+      <c r="Q3" s="43"/>
+      <c r="S3" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
     </row>
     <row r="4" spans="1:23" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
@@ -1390,15 +1430,15 @@
         <f>D16</f>
         <v>0.02</v>
       </c>
-      <c r="E5" s="38" t="str">
+      <c r="E5" s="37" t="str">
         <f>E16</f>
         <v>4.180M</v>
       </c>
-      <c r="F5" s="38" t="str">
+      <c r="F5" s="37" t="str">
         <f>F16</f>
         <v>0.397G</v>
       </c>
-      <c r="G5" s="38" t="str">
+      <c r="G5" s="37" t="str">
         <f>G16</f>
         <v>21.473FPS</v>
       </c>
@@ -1448,13 +1488,13 @@
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>188</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -1509,15 +1549,15 @@
         <f t="shared" ref="D7:F7" si="0">D19</f>
         <v>0.04</v>
       </c>
-      <c r="E7" s="38" t="str">
+      <c r="E7" s="37" t="str">
         <f>E19</f>
         <v>4.285M</v>
       </c>
-      <c r="F7" s="38" t="str">
+      <c r="F7" s="37" t="str">
         <f t="shared" si="0"/>
         <v>0.397G</v>
       </c>
-      <c r="G7" s="38" t="str">
+      <c r="G7" s="37" t="str">
         <f>G19</f>
         <v>21.367FPS</v>
       </c>
@@ -1533,10 +1573,10 @@
       <c r="L7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="35" t="s">
         <v>179</v>
       </c>
       <c r="P7" s="3" t="s">
@@ -1567,13 +1607,13 @@
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="38" t="s">
         <v>195</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -1585,7 +1625,7 @@
       <c r="K8" s="25">
         <v>0.99656999999999996</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="34" t="s">
         <v>59</v>
       </c>
       <c r="M8" s="29" t="s">
@@ -1622,21 +1662,21 @@
       </c>
       <c r="C9" s="24">
         <f>C22</f>
-        <v>0.05</v>
+        <v>0.99779600000000002</v>
       </c>
       <c r="D9" s="24">
         <f t="shared" ref="D9:G9" si="1">D22</f>
         <v>0.06</v>
       </c>
-      <c r="E9" s="38" t="str">
+      <c r="E9" s="37" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> 4.217M</v>
       </c>
-      <c r="F9" s="38" t="str">
+      <c r="F9" s="37" t="str">
         <f t="shared" si="1"/>
         <v>0.397G</v>
       </c>
-      <c r="G9" s="38" t="str">
+      <c r="G9" s="37" t="str">
         <f t="shared" si="1"/>
         <v>21.473FPS</v>
       </c>
@@ -1649,13 +1689,13 @@
       <c r="K9" s="24">
         <v>0.98724999999999996</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="35" t="s">
         <v>181</v>
       </c>
       <c r="P9" s="3" t="s">
@@ -1669,24 +1709,26 @@
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="27">
+        <v>0.998193</v>
+      </c>
       <c r="D10" s="27"/>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="40" t="s">
         <v>201</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="32">
         <v>0.95686000000000004</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="32">
         <v>0.99019999999999997</v>
       </c>
       <c r="L10" s="29" t="s">
@@ -1721,7 +1763,7 @@
       <c r="M11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="33" t="s">
         <v>183</v>
       </c>
       <c r="P11" s="3" t="s">
@@ -1730,6 +1772,13 @@
       <c r="Q11" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="S11" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
     </row>
     <row r="12" spans="1:23" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
@@ -1745,9 +1794,39 @@
       <c r="Q12" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="S12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
+      <c r="S13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T13" s="4">
+        <v>102</v>
+      </c>
+      <c r="U13" s="15">
+        <v>8189</v>
+      </c>
+      <c r="V13" s="15">
+        <v>6149</v>
+      </c>
+      <c r="W13" s="15">
+        <v>2040</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
@@ -1769,14 +1848,29 @@
       <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="S14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T14" s="4">
+        <v>184</v>
+      </c>
+      <c r="U14" s="15">
+        <v>7719</v>
+      </c>
+      <c r="V14" s="15">
+        <v>6238</v>
+      </c>
+      <c r="W14" s="15">
+        <v>1481</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
@@ -1816,8 +1910,23 @@
       <c r="N15" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S15" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="T15" s="4">
+        <v>32</v>
+      </c>
+      <c r="U15" s="15">
+        <v>1907</v>
+      </c>
+      <c r="V15" s="15">
+        <v>1536</v>
+      </c>
+      <c r="W15" s="15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
@@ -1840,7 +1949,7 @@
       <c r="I16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="41">
         <v>0.91559999999999997</v>
       </c>
       <c r="K16" s="24">
@@ -1855,8 +1964,27 @@
       <c r="N16" s="28" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S16" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="T16" s="44">
+        <f>SUM(T13:T15)</f>
+        <v>318</v>
+      </c>
+      <c r="U16" s="18">
+        <f>SUM(U13:U15)</f>
+        <v>17815</v>
+      </c>
+      <c r="V16" s="18">
+        <f t="shared" ref="V16:W16" si="2">SUM(V13:V15)</f>
+        <v>13923</v>
+      </c>
+      <c r="W16" s="18">
+        <f t="shared" si="2"/>
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
       <c r="B17" s="5" t="s">
         <v>25</v>
@@ -1869,13 +1997,13 @@
       <c r="F17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="36" t="s">
         <v>189</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="41">
         <v>0.92235</v>
       </c>
       <c r="K17" s="24">
@@ -1914,7 +2042,7 @@
       <c r="I18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="41">
         <v>0.92505000000000004</v>
       </c>
       <c r="K18" s="24">
@@ -1923,10 +2051,10 @@
       <c r="L18" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="M18" s="36" t="s">
+      <c r="M18" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="36" t="s">
+      <c r="N18" s="35" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1956,10 +2084,10 @@
       <c r="J19" s="25">
         <v>0.92842999999999998</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="32">
         <v>0.99797000000000002</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L19" s="34" t="s">
         <v>215</v>
       </c>
       <c r="M19" s="29" t="s">
@@ -1980,27 +2108,27 @@
         <v>12</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="36" t="s">
         <v>194</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="41">
         <v>0.89398999999999995</v>
       </c>
       <c r="K20" s="24">
         <v>0.99055000000000004</v>
       </c>
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M20" s="36" t="s">
+      <c r="M20" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="N20" s="36" t="s">
+      <c r="N20" s="35" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2009,7 +2137,9 @@
       <c r="B21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="24">
+        <v>0.99775199999999997</v>
+      </c>
       <c r="D21" s="24"/>
       <c r="E21" s="28" t="s">
         <v>198</v>
@@ -2027,7 +2157,7 @@
       <c r="J21" s="25">
         <v>0.92166999999999999</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="32">
         <v>0.99595</v>
       </c>
       <c r="L21" s="29" t="s">
@@ -2046,7 +2176,7 @@
         <v>31</v>
       </c>
       <c r="C22" s="24">
-        <v>0.05</v>
+        <v>0.99779600000000002</v>
       </c>
       <c r="D22" s="24">
         <v>0.06</v>
@@ -2064,24 +2194,30 @@
       <c r="I22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="43"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="27"/>
       <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
+      <c r="M22" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
       <c r="B23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="27">
+        <v>0.99814899999999995</v>
+      </c>
       <c r="D23" s="27"/>
       <c r="E23" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="F23" s="29" t="s">
-        <v>26</v>
+      <c r="F23" s="30" t="s">
+        <v>224</v>
       </c>
       <c r="G23" s="30" t="str">
         <f>G17</f>
@@ -2092,14 +2228,14 @@
       <c r="A24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="1:14" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
@@ -2153,11 +2289,21 @@
       <c r="I27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
+      <c r="J27" s="24">
+        <v>0.99351999999999996</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0.99973999999999996</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
@@ -2166,18 +2312,28 @@
       <c r="C28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="I28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
+      <c r="J28" s="24">
+        <v>0.99629800000000002</v>
+      </c>
+      <c r="K28" s="24">
+        <v>0.99929000000000001</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
@@ -2186,18 +2342,28 @@
       <c r="C29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="I29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
+      <c r="J29" s="24">
+        <v>0.99647399999999997</v>
+      </c>
+      <c r="K29" s="24">
+        <v>0.99921000000000004</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="35" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
@@ -2206,18 +2372,28 @@
       <c r="C30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="I30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+      <c r="J30" s="32">
+        <v>0.99770800000000004</v>
+      </c>
+      <c r="K30" s="32">
+        <v>1</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
@@ -2226,18 +2402,28 @@
       <c r="C31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="I31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
+      <c r="J31" s="24">
+        <v>0.99343300000000001</v>
+      </c>
+      <c r="K31" s="24">
+        <v>0.99982000000000004</v>
+      </c>
+      <c r="L31" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="M31" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" s="35" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
@@ -2246,18 +2432,32 @@
       <c r="C32" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="33"/>
+      <c r="D32" s="26">
+        <v>0.99819000000000002</v>
+      </c>
       <c r="E32" s="26"/>
-      <c r="F32" s="29"/>
+      <c r="F32" s="29" t="s">
+        <v>223</v>
+      </c>
       <c r="G32" s="29"/>
       <c r="I32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="J32" s="32">
+        <v>0.99700299999999997</v>
+      </c>
+      <c r="K32" s="32">
+        <v>0.99987000000000004</v>
+      </c>
+      <c r="L32" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="33" spans="2:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
@@ -2266,7 +2466,7 @@
       <c r="C33" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
@@ -2276,8 +2476,12 @@
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
       <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
+      <c r="M33" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="34" spans="2:14" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
@@ -2286,7 +2490,7 @@
       <c r="C34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="32"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
@@ -2298,7 +2502,7 @@
       <c r="C35" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
@@ -2310,7 +2514,7 @@
       <c r="C36" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
@@ -2322,7 +2526,7 @@
       <c r="C37" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
@@ -2334,7 +2538,7 @@
       <c r="C38" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="33"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
@@ -2346,7 +2550,7 @@
       <c r="C39" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
@@ -2358,7 +2562,7 @@
       <c r="C40" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
@@ -2370,7 +2574,7 @@
       <c r="C41" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="24"/>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
@@ -2382,7 +2586,7 @@
       <c r="C42" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="32"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
@@ -2394,7 +2598,7 @@
       <c r="C43" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
@@ -2413,12 +2617,13 @@
     </row>
     <row r="45" spans="2:14" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="I14:N14"/>
     <mergeCell ref="I25:N25"/>
+    <mergeCell ref="S11:W11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2451,25 +2656,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:23" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="P3" s="44" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="P3" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="S3" s="44" t="s">
+      <c r="Q3" s="43"/>
+      <c r="S3" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
     </row>
     <row r="4" spans="2:23" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
@@ -2864,14 +3069,14 @@
       <c r="F14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="2:23" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
@@ -3085,14 +3290,14 @@
     </row>
     <row r="23" spans="2:14" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="2:14" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
